--- a/VersionRecords/Version 5.0.1/版本Bug和特性计划及评审表v5.0.1_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.1/版本Bug和特性计划及评审表v5.0.1_捷豹组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>No</t>
   </si>
@@ -190,6 +190,29 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>chen'shu</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>fix bug</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>补录租约列表日期查询问题</t>
+    <rPh sb="0" eb="1">
+      <t>bu'lu'zu'y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lie'b</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ri'q</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cha'xun</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wen't</t>
     </rPh>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -388,7 +411,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -404,6 +427,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -530,7 +559,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -541,11 +570,13 @@
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -920,7 +951,7 @@
   <dimension ref="A1:T188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1136,17 +1167,35 @@
       <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
+      <c r="B5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="16">
+        <v>42626</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="16">
+        <v>42626</v>
+      </c>
       <c r="I5" s="15"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="K5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="M5" s="24"/>
       <c r="N5" s="16"/>
       <c r="O5" s="24"/>
